--- a/Documentation/Documents/Progress/Developer Team.xlsx
+++ b/Documentation/Documents/Progress/Developer Team.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="111">
   <si>
     <t>■</t>
   </si>
@@ -222,16 +222,133 @@
     <t>Start</t>
   </si>
   <si>
-    <t>Authenctication</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
     <t>Form</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Budgeting</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Cancelation</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Payment Instruction</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Advance Aging</t>
+  </si>
+  <si>
+    <t>Advance Request To Settlement</t>
+  </si>
+  <si>
+    <t>Advance Settlement</t>
+  </si>
+  <si>
+    <t>Advance Request</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Bill Of Material</t>
+  </si>
+  <si>
+    <t>BudgetType</t>
+  </si>
+  <si>
+    <t>Bill Of Material Detail</t>
+  </si>
+  <si>
+    <t>Material Product Assembly</t>
+  </si>
+  <si>
+    <t>Material Product Assembly Version</t>
+  </si>
+  <si>
+    <t>Material Product Component</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Supply Chain</t>
+  </si>
+  <si>
+    <t>Procurement Requisition</t>
+  </si>
+  <si>
+    <t>Customer Relation</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>Budget Expense</t>
+  </si>
+  <si>
+    <t>Budget Expense Line</t>
+  </si>
+  <si>
+    <t>Budget Expense Line Ceiling</t>
+  </si>
+  <si>
+    <t>Budget Expense Line Ceiling Object</t>
+  </si>
+  <si>
+    <t>Budget Type</t>
+  </si>
+  <si>
+    <t>Data List</t>
+  </si>
+  <si>
+    <t>Data Form</t>
+  </si>
+  <si>
+    <t>Sales Invoice</t>
+  </si>
+  <si>
+    <t>Project Section</t>
+  </si>
+  <si>
+    <t>Project Section Item</t>
+  </si>
+  <si>
+    <t>Project Section Item Work</t>
   </si>
 </sst>
 </file>
@@ -241,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +416,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -737,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,37 +1017,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,44 +1099,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,13 +1114,29 @@
     <xf numFmtId="1" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,32 +1215,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1140,24 +1252,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>RESUME!$E$2:$E$4</c:f>
+              <c:f>RESUME!$J$2:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Main ► Form ► Core</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Authenctication ► Form ► Login</c:v>
+                  <c:v>System ► Form ► Authentication ► Login</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Authenctication ► Form ► Logout</c:v>
+                  <c:v>System ► Form ► Authentication ► Logout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RESUME!$G$2:$G$4</c:f>
+              <c:f>RESUME!$L$2:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1179,7 +1291,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RESUME!$H$1</c:f>
+              <c:f>RESUME!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1273,24 +1385,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>RESUME!$E$2:$E$4</c:f>
+              <c:f>RESUME!$J$2:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Main ► Form ► Core</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Authenctication ► Form ► Login</c:v>
+                  <c:v>System ► Form ► Authentication ► Login</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Authenctication ► Form ► Logout</c:v>
+                  <c:v>System ► Form ► Authentication ► Logout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RESUME!$H$2:$H$4</c:f>
+              <c:f>RESUME!$M$2:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1312,7 +1424,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RESUME!$I$1</c:f>
+              <c:f>RESUME!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1404,24 +1516,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>RESUME!$E$2:$E$4</c:f>
+              <c:f>RESUME!$J$2:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Main ► Form ► Core</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Authenctication ► Form ► Login</c:v>
+                  <c:v>System ► Form ► Authentication ► Login</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Authenctication ► Form ► Logout</c:v>
+                  <c:v>System ► Form ► Authentication ► Logout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RESUME!$I$2:$I$4</c:f>
+              <c:f>RESUME!$N$2:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1448,11 +1560,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="355350568"/>
-        <c:axId val="366718464"/>
+        <c:axId val="184844104"/>
+        <c:axId val="184844488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355350568"/>
+        <c:axId val="184844104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1606,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366718464"/>
+        <c:crossAx val="184844488"/>
         <c:crossesAt val="44118"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1502,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366718464"/>
+        <c:axId val="184844488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="44118"/>
@@ -1553,7 +1665,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355350568"/>
+        <c:crossAx val="184844104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,556 +1756,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2502,154 +2078,2422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="97" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="97" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="97" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="96"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" style="106" customWidth="1"/>
+    <col min="6" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="104" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="104" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="104" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="105"/>
+    <col min="17" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="L1" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="M1" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="N1" s="104" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="106" t="str">
+        <f t="shared" ref="E2:F2" si="0">IF(EXACT(A2, ""), E1, A2)</f>
+        <v>Main</v>
+      </c>
+      <c r="F2" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Form</v>
+      </c>
+      <c r="G2" s="106" t="str">
+        <f t="shared" ref="G2" si="1">IF(EXACT(B2, ""), IF(EXACT(C2, ""), G1, C2), IF(EXACT(C2, ""), "", C2))</f>
+        <v>Core</v>
+      </c>
+      <c r="H2" s="106" t="str">
+        <f>IF(EXACT(G2, ""), "", IF(EXACT(D2, ""), "", D2))</f>
+        <v/>
+      </c>
+      <c r="I2" s="106"/>
+      <c r="J2" s="108" t="str">
+        <f>CONCATENATE(
+IF(EXACT(E2, ""), "", E2),
+IF(EXACT(F2, ""), "", CONCATENATE(" ► ", F2)),
+IF(EXACT(G2, ""), "", CONCATENATE(" ► ", G2)),
+IF(EXACT(H2, ""), "", CONCATENATE(" ► ", H2)),
+)</f>
+        <v>Main ► Form ► Core</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="41">
+        <f ca="1">VLOOKUP(K2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 8, )</f>
+        <v>44118</v>
+      </c>
+      <c r="M2" s="104">
+        <f ca="1">IF(VLOOKUP(K2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ) &lt; MAIN!J6,
+((MAIN!J6)-(VLOOKUP(K2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ))),
+VLOOKUP(K2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, ))</f>
+        <v>30</v>
+      </c>
+      <c r="N2" s="104">
+        <f ca="1">VLOOKUP(K2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, )-M2+10</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="106" t="str">
+        <f t="shared" ref="E3:E66" si="2">IF(EXACT(A3, ""), E2, A3)</f>
+        <v>System</v>
+      </c>
+      <c r="F3" s="106" t="str">
+        <f t="shared" ref="F3:F66" si="3">IF(EXACT(B3, ""), F2, B3)</f>
+        <v>Form</v>
+      </c>
+      <c r="G3" s="106" t="str">
+        <f t="shared" ref="G3:G66" si="4">IF(EXACT(B3, ""), IF(EXACT(C3, ""), G2, C3), IF(EXACT(C3, ""), "", C3))</f>
+        <v>Authentication</v>
+      </c>
+      <c r="H3" s="106" t="str">
+        <f t="shared" ref="H3:H66" si="5">IF(EXACT(G3, ""), "", IF(EXACT(D3, ""), "", D3))</f>
+        <v>Login</v>
+      </c>
+      <c r="I3" s="106"/>
+      <c r="J3" s="108" t="str">
+        <f t="shared" ref="J3:J66" si="6">CONCATENATE(
+IF(EXACT(E3, ""), "", E3),
+IF(EXACT(F3, ""), "", CONCATENATE(" ► ", F3)),
+IF(EXACT(G3, ""), "", CONCATENATE(" ► ", G3)),
+IF(EXACT(H3, ""), "", CONCATENATE(" ► ", H3)),
+)</f>
+        <v>System ► Form ► Authentication ► Login</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="41">
+        <f ca="1">VLOOKUP(K3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 8, )</f>
+        <v>44148</v>
+      </c>
+      <c r="M3" s="104">
+        <f ca="1">IF(VLOOKUP(K3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ) &lt; MAIN!J7,
+((MAIN!J7)-(VLOOKUP(K3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ))),
+VLOOKUP(K3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, ))</f>
+        <v>3</v>
+      </c>
+      <c r="N3" s="104">
+        <f ca="1">VLOOKUP(K3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, )-M3+10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>System</v>
+      </c>
+      <c r="F4" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G4" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Authentication</v>
+      </c>
+      <c r="H4" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Logout</v>
+      </c>
+      <c r="I4" s="106"/>
+      <c r="J4" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>System ► Form ► Authentication ► Logout</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="41">
+        <f ca="1">VLOOKUP(K4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 8, )</f>
+        <v>44148</v>
+      </c>
+      <c r="M4" s="104">
+        <f ca="1">IF(VLOOKUP(K4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ) &lt; MAIN!J8,
+((MAIN!J8)-(VLOOKUP(K4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ))),
+VLOOKUP(K4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, ))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="104">
+        <f ca="1">VLOOKUP(K4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, )-M4+10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F5" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G5" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget</v>
+      </c>
+      <c r="H5" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I5" s="106"/>
+      <c r="J5" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget ► Submit</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F6" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G6" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget</v>
+      </c>
+      <c r="H6" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I6" s="106"/>
+      <c r="J6" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget ► Revision</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F7" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G7" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense</v>
+      </c>
+      <c r="H7" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I7" s="106"/>
+      <c r="J7" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense ► Submit</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F8" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G8" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense</v>
+      </c>
+      <c r="H8" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I8" s="106"/>
+      <c r="J8" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense ► Revision</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F9" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G9" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense Line</v>
+      </c>
+      <c r="H9" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I9" s="106"/>
+      <c r="J9" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense Line ► Submit</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F10" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G10" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense Line</v>
+      </c>
+      <c r="H10" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense Line ► Revision</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F11" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G11" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense Line Ceiling</v>
+      </c>
+      <c r="H11" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I11" s="106"/>
+      <c r="J11" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense Line Ceiling ► Submit</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F12" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G12" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense Line Ceiling</v>
+      </c>
+      <c r="H12" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I12" s="106"/>
+      <c r="J12" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense Line Ceiling ► Revision</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F13" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G13" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense Line Ceiling Object</v>
+      </c>
+      <c r="H13" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense Line Ceiling Object ► Submit</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F14" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G14" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Expense Line Ceiling Object</v>
+      </c>
+      <c r="H14" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I14" s="106"/>
+      <c r="J14" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Expense Line Ceiling Object ► Revision</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F15" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G15" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Type</v>
+      </c>
+      <c r="H15" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Type ► Submit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F16" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G16" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Budget Type</v>
+      </c>
+      <c r="H16" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I16" s="106"/>
+      <c r="J16" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Form ► Budget Type ► Revision</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F17" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G17" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H17" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Budget Expense</v>
+      </c>
+      <c r="I17" s="106"/>
+      <c r="J17" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Report ► Data List ► Budget Expense</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F18" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G18" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H18" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Budget Expense Line</v>
+      </c>
+      <c r="I18" s="106"/>
+      <c r="J18" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Report ► Data List ► Budget Expense Line</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F19" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G19" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H19" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Budget Expense Line Ceiling</v>
+      </c>
+      <c r="I19" s="106"/>
+      <c r="J19" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Report ► Data List ► Budget Expense Line Ceiling</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F20" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G20" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H20" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Budget Expense Line Ceiling Object</v>
+      </c>
+      <c r="I20" s="106"/>
+      <c r="J20" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Report ► Data List ► Budget Expense Line Ceiling Object</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Budgeting</v>
+      </c>
+      <c r="F21" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G21" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H21" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>BudgetType</v>
+      </c>
+      <c r="I21" s="106"/>
+      <c r="J21" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Budgeting ► Report ► Data List ► BudgetType</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F22" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G22" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Order</v>
+      </c>
+      <c r="H22" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I22" s="106"/>
+      <c r="J22" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Order ► Submit</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F23" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G23" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Order</v>
+      </c>
+      <c r="H23" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I23" s="106"/>
+      <c r="J23" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Order ► Revision</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F24" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G24" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Order</v>
+      </c>
+      <c r="H24" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Cancelation</v>
+      </c>
+      <c r="I24" s="106"/>
+      <c r="J24" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Order ► Cancelation</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F25" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G25" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Order</v>
+      </c>
+      <c r="H25" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Settlement</v>
+      </c>
+      <c r="I25" s="106"/>
+      <c r="J25" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Order ► Settlement</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F26" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G26" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Invoice</v>
+      </c>
+      <c r="H26" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I26" s="106"/>
+      <c r="J26" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Invoice ► Submit</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F27" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G27" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Invoice</v>
+      </c>
+      <c r="H27" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I27" s="106"/>
+      <c r="J27" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Invoice ► Revision</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F28" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G28" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Invoice</v>
+      </c>
+      <c r="H28" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Cancelation</v>
+      </c>
+      <c r="I28" s="106"/>
+      <c r="J28" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Invoice ► Cancelation</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F29" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G29" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Invoice</v>
+      </c>
+      <c r="H29" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Settlement</v>
+      </c>
+      <c r="I29" s="106"/>
+      <c r="J29" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Sales Invoice ► Settlement</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F30" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G30" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H30" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Sales Order</v>
+      </c>
+      <c r="I30" s="106"/>
+      <c r="J30" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Data List ► Sales Order</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Customer Relation</v>
+      </c>
+      <c r="F31" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G31" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H31" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Sales Invoice</v>
+      </c>
+      <c r="I31" s="106"/>
+      <c r="J31" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Customer Relation ► Form ► Data List ► Sales Invoice</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F32" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G32" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Advance</v>
+      </c>
+      <c r="H32" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I32" s="106"/>
+      <c r="J32" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Advance ► Submit</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F33" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G33" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Advance</v>
+      </c>
+      <c r="H33" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I33" s="106"/>
+      <c r="J33" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Advance ► Revision</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F34" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G34" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Advance</v>
+      </c>
+      <c r="H34" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Cancelation</v>
+      </c>
+      <c r="I34" s="106"/>
+      <c r="J34" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Advance ► Cancelation</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F35" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G35" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Advance</v>
+      </c>
+      <c r="H35" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Settlement</v>
+      </c>
+      <c r="I35" s="106"/>
+      <c r="J35" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Advance ► Settlement</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F36" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G36" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Payment Instruction</v>
+      </c>
+      <c r="H36" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I36" s="106"/>
+      <c r="J36" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Payment Instruction ► Submit</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F37" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G37" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Payment Instruction</v>
+      </c>
+      <c r="H37" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I37" s="106"/>
+      <c r="J37" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Payment Instruction ► Revision</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F38" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G38" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Payment Instruction</v>
+      </c>
+      <c r="H38" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Cancelation</v>
+      </c>
+      <c r="I38" s="106"/>
+      <c r="J38" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Payment Instruction ► Cancelation</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F39" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G39" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Payment Instruction</v>
+      </c>
+      <c r="H39" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Settlement</v>
+      </c>
+      <c r="I39" s="106"/>
+      <c r="J39" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Form ► Payment Instruction ► Settlement</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F40" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G40" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H40" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Advance</v>
+      </c>
+      <c r="I40" s="106"/>
+      <c r="J40" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Data List ► Advance</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F41" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G41" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H41" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Payment Instruction</v>
+      </c>
+      <c r="I41" s="106"/>
+      <c r="J41" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Data List ► Payment Instruction</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F42" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G42" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data Form</v>
+      </c>
+      <c r="H42" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Advance</v>
+      </c>
+      <c r="I42" s="106"/>
+      <c r="J42" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Data Form ► Advance</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F43" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G43" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data Form</v>
+      </c>
+      <c r="H43" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Payment Instruction</v>
+      </c>
+      <c r="I43" s="106"/>
+      <c r="J43" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Data Form ► Payment Instruction</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F44" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G44" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Resume</v>
+      </c>
+      <c r="H44" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Advance Request</v>
+      </c>
+      <c r="I44" s="106"/>
+      <c r="J44" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Resume ► Advance Request</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F45" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G45" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Resume</v>
+      </c>
+      <c r="H45" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Advance Settlement</v>
+      </c>
+      <c r="I45" s="106"/>
+      <c r="J45" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Resume ► Advance Settlement</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F46" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G46" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Resume</v>
+      </c>
+      <c r="H46" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Advance Aging</v>
+      </c>
+      <c r="I46" s="106"/>
+      <c r="J46" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Resume ► Advance Aging</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="F47" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G47" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Resume</v>
+      </c>
+      <c r="H47" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Advance Request To Settlement</v>
+      </c>
+      <c r="I47" s="106"/>
+      <c r="J47" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Finance ► Report ► Resume ► Advance Request To Settlement</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(EXACT(A2, ""), CONCATENATE(LEFT(D1, LEN(D1)-LEN(B1)), B1), CONCATENATE(A2, " ► ", B2))</f>
-        <v>Main ► Form</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(D2, " ► ", C2)</f>
-        <v>Main ► Form ► Core</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="95">
-        <f ca="1">VLOOKUP(F2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 8, )</f>
-        <v>44118</v>
-      </c>
-      <c r="H2" s="97">
-        <f ca="1">IF(VLOOKUP(F2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ) &lt; MAIN!J6,
-((MAIN!J6)-(VLOOKUP(F2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ))),
-VLOOKUP(F2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, ))</f>
-        <v>30</v>
-      </c>
-      <c r="I2" s="97">
-        <f ca="1">VLOOKUP(F2, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, )-H2+10</f>
-        <v>10</v>
-      </c>
-      <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">IF(EXACT(A3, ""), CONCATENATE(LEFT(D2, LEN(D2)-LEN(B2)), B2), CONCATENATE(A3, " ► ", B3))</f>
-        <v>Authenctication ► Form</v>
-      </c>
-      <c r="E3" t="str">
-        <f>CONCATENATE(D3, " ► ", C3)</f>
-        <v>Authenctication ► Form ► Login</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="95">
-        <f ca="1">VLOOKUP(F3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 8, )</f>
-        <v>44148</v>
-      </c>
-      <c r="H3" s="97">
-        <f ca="1">IF(VLOOKUP(F3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ) &lt; MAIN!J7,
-((MAIN!J7)-(VLOOKUP(F3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ))),
-VLOOKUP(F3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, ))</f>
-        <v>3</v>
-      </c>
-      <c r="I3" s="97">
-        <f ca="1">VLOOKUP(F3, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, )-H3+10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Authenctication ► Form</v>
-      </c>
-      <c r="E4" t="str">
-        <f>CONCATENATE(D4, " ► ", C4)</f>
-        <v>Authenctication ► Form ► Logout</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="95">
-        <f ca="1">VLOOKUP(F4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 8, )</f>
-        <v>44148</v>
-      </c>
-      <c r="H4" s="97">
-        <f ca="1">IF(VLOOKUP(F4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ) &lt; MAIN!J8,
-((MAIN!J8)-(VLOOKUP(F4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 9, ))),
-VLOOKUP(F4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, ))</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="97">
-        <f ca="1">VLOOKUP(F4, OFFSET(MAIN!$B$6, 0, 0, PARAMETER!$C$2, 9), 7, )-H4+10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F48" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G48" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Bill Of Material</v>
+      </c>
+      <c r="H48" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I48" s="106"/>
+      <c r="J48" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Bill Of Material ► Submit</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F49" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G49" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Bill Of Material</v>
+      </c>
+      <c r="H49" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I49" s="106"/>
+      <c r="J49" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Bill Of Material ► Revision</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F50" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G50" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Bill Of Material Detail</v>
+      </c>
+      <c r="H50" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I50" s="106"/>
+      <c r="J50" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Bill Of Material Detail ► Submit</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F51" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G51" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Bill Of Material Detail</v>
+      </c>
+      <c r="H51" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I51" s="106"/>
+      <c r="J51" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Bill Of Material Detail ► Revision</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F52" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G52" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Material Product Assembly</v>
+      </c>
+      <c r="H52" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I52" s="106"/>
+      <c r="J52" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Material Product Assembly ► Submit</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F53" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G53" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Material Product Assembly</v>
+      </c>
+      <c r="H53" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I53" s="106"/>
+      <c r="J53" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Material Product Assembly ► Revision</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F54" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G54" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Material Product Assembly Version</v>
+      </c>
+      <c r="H54" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I54" s="106"/>
+      <c r="J54" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Material Product Assembly Version ► Submit</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F55" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G55" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Material Product Assembly Version</v>
+      </c>
+      <c r="H55" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I55" s="106"/>
+      <c r="J55" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Material Product Assembly Version ► Revision</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F56" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G56" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Material Product Component</v>
+      </c>
+      <c r="H56" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I56" s="106"/>
+      <c r="J56" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Material Product Component ► Submit</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F57" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G57" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Material Product Component</v>
+      </c>
+      <c r="H57" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I57" s="106"/>
+      <c r="J57" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Form ► Material Product Component ► Revision</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F58" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G58" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H58" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Bill Of Material</v>
+      </c>
+      <c r="I58" s="106"/>
+      <c r="J58" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Report ► Data List ► Bill Of Material</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F59" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G59" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H59" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Bill Of Material Detail</v>
+      </c>
+      <c r="I59" s="106"/>
+      <c r="J59" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Report ► Data List ► Bill Of Material Detail</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F60" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G60" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H60" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Material Product Assembly</v>
+      </c>
+      <c r="I60" s="106"/>
+      <c r="J60" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Report ► Data List ► Material Product Assembly</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F61" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G61" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H61" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Material Product Assembly Version</v>
+      </c>
+      <c r="I61" s="106"/>
+      <c r="J61" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Report ► Data List ► Material Product Assembly Version</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Production</v>
+      </c>
+      <c r="F62" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Report</v>
+      </c>
+      <c r="G62" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Data List</v>
+      </c>
+      <c r="H62" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Material Product Component</v>
+      </c>
+      <c r="I62" s="106"/>
+      <c r="J62" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Production ► Report ► Data List ► Material Product Component</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Authenctication ► Form</v>
-      </c>
-      <c r="E5" t="str">
-        <f>CONCATENATE(D5, " ► ", C5)</f>
-        <v>Authenctication ► Form ► xxx</v>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Project</v>
+      </c>
+      <c r="F63" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G63" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Project</v>
+      </c>
+      <c r="H63" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I63" s="106"/>
+      <c r="J63" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Project ► Form ► Project ► Submit</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Project</v>
+      </c>
+      <c r="F64" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G64" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Project</v>
+      </c>
+      <c r="H64" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I64" s="106"/>
+      <c r="J64" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Project ► Form ► Project ► Revision</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Project</v>
+      </c>
+      <c r="F65" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G65" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Project Section</v>
+      </c>
+      <c r="H65" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Submit</v>
+      </c>
+      <c r="I65" s="106"/>
+      <c r="J65" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Project ► Form ► Project Section ► Submit</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>Project</v>
+      </c>
+      <c r="F66" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>Form</v>
+      </c>
+      <c r="G66" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>Project Section</v>
+      </c>
+      <c r="H66" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Revision</v>
+      </c>
+      <c r="I66" s="106"/>
+      <c r="J66" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>Project ► Form ► Project Section ► Revision</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="106" t="str">
+        <f t="shared" ref="E67:E84" si="7">IF(EXACT(A67, ""), E66, A67)</f>
+        <v>Project</v>
+      </c>
+      <c r="F67" s="106" t="str">
+        <f t="shared" ref="F67:F84" si="8">IF(EXACT(B67, ""), F66, B67)</f>
+        <v>Form</v>
+      </c>
+      <c r="G67" s="106" t="str">
+        <f t="shared" ref="G67:G84" si="9">IF(EXACT(B67, ""), IF(EXACT(C67, ""), G66, C67), IF(EXACT(C67, ""), "", C67))</f>
+        <v>Project Section Item</v>
+      </c>
+      <c r="H67" s="106" t="str">
+        <f t="shared" ref="H67:H84" si="10">IF(EXACT(G67, ""), "", IF(EXACT(D67, ""), "", D67))</f>
+        <v>Submit</v>
+      </c>
+      <c r="I67" s="106"/>
+      <c r="J67" s="108" t="str">
+        <f t="shared" ref="J67:J84" si="11">CONCATENATE(
+IF(EXACT(E67, ""), "", E67),
+IF(EXACT(F67, ""), "", CONCATENATE(" ► ", F67)),
+IF(EXACT(G67, ""), "", CONCATENATE(" ► ", G67)),
+IF(EXACT(H67, ""), "", CONCATENATE(" ► ", H67)),
+)</f>
+        <v>Project ► Form ► Project Section Item ► Submit</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F68" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G68" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Project Section Item</v>
+      </c>
+      <c r="H68" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Revision</v>
+      </c>
+      <c r="I68" s="106"/>
+      <c r="J68" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Form ► Project Section Item ► Revision</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F69" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G69" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Project Section Item Work</v>
+      </c>
+      <c r="H69" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Submit</v>
+      </c>
+      <c r="I69" s="106"/>
+      <c r="J69" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Form ► Project Section Item Work ► Submit</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F70" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G70" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Project Section Item Work</v>
+      </c>
+      <c r="H70" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Revision</v>
+      </c>
+      <c r="I70" s="106"/>
+      <c r="J70" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Form ► Project Section Item Work ► Revision</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F71" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Report</v>
+      </c>
+      <c r="G71" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Data List</v>
+      </c>
+      <c r="H71" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Project</v>
+      </c>
+      <c r="I71" s="106"/>
+      <c r="J71" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Report ► Data List ► Project</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F72" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Report</v>
+      </c>
+      <c r="G72" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Data List</v>
+      </c>
+      <c r="H72" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Project Section</v>
+      </c>
+      <c r="I72" s="106"/>
+      <c r="J72" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Report ► Data List ► Project Section</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F73" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Report</v>
+      </c>
+      <c r="G73" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Data List</v>
+      </c>
+      <c r="H73" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Project Section Item</v>
+      </c>
+      <c r="I73" s="106"/>
+      <c r="J73" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Report ► Data List ► Project Section Item</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Project</v>
+      </c>
+      <c r="F74" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Report</v>
+      </c>
+      <c r="G74" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Data List</v>
+      </c>
+      <c r="H74" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Project Section Item Work</v>
+      </c>
+      <c r="I74" s="106"/>
+      <c r="J74" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Project ► Report ► Data List ► Project Section Item Work</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F75" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G75" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Procurement Requisition</v>
+      </c>
+      <c r="H75" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Submit</v>
+      </c>
+      <c r="I75" s="106"/>
+      <c r="J75" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Procurement Requisition ► Submit</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F76" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G76" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Procurement Requisition</v>
+      </c>
+      <c r="H76" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Revision</v>
+      </c>
+      <c r="I76" s="106"/>
+      <c r="J76" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Procurement Requisition ► Revision</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F77" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G77" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Procurement Requisition</v>
+      </c>
+      <c r="H77" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Cancelation</v>
+      </c>
+      <c r="I77" s="106"/>
+      <c r="J77" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Procurement Requisition ► Cancelation</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F78" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G78" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Procurement Requisition</v>
+      </c>
+      <c r="H78" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Settlement</v>
+      </c>
+      <c r="I78" s="106"/>
+      <c r="J78" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Procurement Requisition ► Settlement</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F79" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G79" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Purchase Order</v>
+      </c>
+      <c r="H79" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Submit</v>
+      </c>
+      <c r="I79" s="106"/>
+      <c r="J79" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Purchase Order ► Submit</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F80" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G80" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Purchase Order</v>
+      </c>
+      <c r="H80" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Revision</v>
+      </c>
+      <c r="I80" s="106"/>
+      <c r="J80" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Purchase Order ► Revision</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F81" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G81" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Purchase Order</v>
+      </c>
+      <c r="H81" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Cancelation</v>
+      </c>
+      <c r="I81" s="106"/>
+      <c r="J81" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Purchase Order ► Cancelation</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F82" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Form</v>
+      </c>
+      <c r="G82" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Purchase Order</v>
+      </c>
+      <c r="H82" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Settlement</v>
+      </c>
+      <c r="I82" s="106"/>
+      <c r="J82" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Form ► Purchase Order ► Settlement</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F83" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Report</v>
+      </c>
+      <c r="G83" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Data List</v>
+      </c>
+      <c r="H83" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Procurement Requisition</v>
+      </c>
+      <c r="I83" s="106"/>
+      <c r="J83" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Report ► Data List ► Procurement Requisition</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>Supply Chain</v>
+      </c>
+      <c r="F84" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>Report</v>
+      </c>
+      <c r="G84" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>Data List</v>
+      </c>
+      <c r="H84" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>Purchase Order</v>
+      </c>
+      <c r="I84" s="106"/>
+      <c r="J84" s="108" t="str">
+        <f t="shared" si="11"/>
+        <v>Supply Chain ► Report ► Data List ► Purchase Order</v>
       </c>
     </row>
   </sheetData>
@@ -2664,10 +4508,10 @@
   <dimension ref="A1:BM53"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="11" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="5" topLeftCell="AK39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2731,319 +4575,319 @@
   <sheetData>
     <row r="1" spans="2:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:65" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="99"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="33"/>
       <c r="J2" s="34"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="Y2" s="88" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="69"/>
+      <c r="Y2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="90"/>
-      <c r="AL2" s="88" t="s">
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="69"/>
+      <c r="AL2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="90"/>
-      <c r="AY2" s="88" t="s">
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="69"/>
+      <c r="AY2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="90"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="69"/>
       <c r="BL2" s="4"/>
       <c r="BM2" s="42"/>
     </row>
     <row r="3" spans="2:65" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="91" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="L3" s="75" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="81"/>
+      <c r="L3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="66" t="s">
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="66" t="s">
+      <c r="T3" s="96"/>
+      <c r="U3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="70"/>
-      <c r="Y3" s="75" t="s">
+      <c r="V3" s="80"/>
+      <c r="W3" s="92"/>
+      <c r="Y3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="66" t="s">
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="66" t="s">
+      <c r="AC3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="65" t="s">
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="66" t="s">
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="70"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="92"/>
+      <c r="AL3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="66" t="s">
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="66" t="s">
+      <c r="AP3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="65" t="s">
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="66" t="s">
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="70"/>
-      <c r="AY3" s="75" t="s">
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="92"/>
+      <c r="AY3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="66" t="s">
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="BC3" s="66" t="s">
+      <c r="BC3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="65" t="s">
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="66" t="s">
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="70"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="92"/>
       <c r="BL3" s="4"/>
       <c r="BM3" s="42"/>
     </row>
     <row r="4" spans="2:65" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="71" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66" t="s">
+      <c r="J4" s="81"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66" t="s">
+      <c r="R4" s="80"/>
+      <c r="S4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66" t="s">
+      <c r="T4" s="80"/>
+      <c r="U4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="70"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66" t="s">
+      <c r="W4" s="92"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="66" t="s">
+      <c r="AD4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66" t="s">
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66" t="s">
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="66" t="s">
+      <c r="AI4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" s="70"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66" t="s">
+      <c r="AJ4" s="92"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AQ4" s="66" t="s">
+      <c r="AQ4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66" t="s">
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66" t="s">
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AV4" s="66" t="s">
+      <c r="AV4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AW4" s="70"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66" t="s">
+      <c r="AW4" s="92"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="BD4" s="66" t="s">
+      <c r="BD4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66" t="s">
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66" t="s">
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="BI4" s="66" t="s">
+      <c r="BI4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="BJ4" s="70"/>
+      <c r="BJ4" s="92"/>
       <c r="BL4" s="4"/>
       <c r="BM4" s="42"/>
     </row>
     <row r="5" spans="2:65" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="86"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="101"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
       <c r="Q5" s="37" t="s">
         <v>13</v>
       </c>
@@ -3056,18 +4900,18 @@
       <c r="T5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="69"/>
+      <c r="U5" s="91"/>
       <c r="V5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="W5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
       <c r="AD5" s="37" t="s">
         <v>13</v>
       </c>
@@ -3080,18 +4924,18 @@
       <c r="AG5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="69"/>
+      <c r="AH5" s="91"/>
       <c r="AI5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AJ5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
       <c r="AQ5" s="37" t="s">
         <v>13</v>
       </c>
@@ -3104,18 +4948,18 @@
       <c r="AT5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="69"/>
+      <c r="AU5" s="91"/>
       <c r="AV5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AW5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="91"/>
       <c r="BD5" s="37" t="s">
         <v>13</v>
       </c>
@@ -3128,7 +4972,7 @@
       <c r="BG5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="BH5" s="69"/>
+      <c r="BH5" s="91"/>
       <c r="BI5" s="37" t="s">
         <v>13</v>
       </c>
@@ -3159,7 +5003,7 @@
         <f>IF(COUNTA(R6, AE6, AR6, BE6)=0, "", MAX(R6, AE6, AR6, BE6))</f>
         <v>44148</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="65">
         <f>IF(OR(EXACT(I6, ""), EXACT(J6, "")), "", J6-I6)</f>
         <v>30</v>
       </c>
@@ -3334,7 +5178,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="103"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="L7" s="12"/>
@@ -3376,10 +5220,10 @@
       <c r="AL7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AM7" s="63" t="s">
+      <c r="AM7" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AN7" s="64"/>
+      <c r="AN7" s="98"/>
       <c r="AO7" s="16"/>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="16"/>
@@ -3432,7 +5276,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="103"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="L8" s="12"/>
@@ -3546,7 +5390,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="103"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="L9" s="12"/>
@@ -3660,7 +5504,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="103"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="L10" s="12"/>
@@ -3774,7 +5618,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="103"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="L11" s="12"/>
@@ -3888,7 +5732,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="103"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="L12" s="12"/>
@@ -4002,7 +5846,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="103"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="L13" s="12"/>
@@ -4116,7 +5960,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="103"/>
+      <c r="H14" s="66"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="L14" s="12"/>
@@ -4230,7 +6074,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="103"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="L15" s="12"/>
@@ -4344,7 +6188,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="103"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="L16" s="12"/>
@@ -4458,7 +6302,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="103"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="L17" s="12"/>
@@ -4500,10 +6344,10 @@
       <c r="AL17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AM17" s="63" t="s">
+      <c r="AM17" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AN17" s="64"/>
+      <c r="AN17" s="98"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
@@ -4556,7 +6400,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="L18" s="12"/>
@@ -4670,7 +6514,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="103"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="L19" s="12"/>
@@ -4784,7 +6628,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="103"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="L20" s="12"/>
@@ -4898,7 +6742,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="103"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="L21" s="12"/>
@@ -5012,7 +6856,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="103"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="L22" s="12"/>
@@ -5126,7 +6970,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="103"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="L23" s="12"/>
@@ -5240,7 +7084,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="103"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="L24" s="12"/>
@@ -5354,7 +7198,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="103"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="L25" s="12"/>
@@ -5468,7 +7312,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="103"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="L26" s="12"/>
@@ -5582,7 +7426,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="L27" s="12"/>
@@ -5696,7 +7540,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="103"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="L28" s="12"/>
@@ -5810,7 +7654,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="L29" s="12"/>
@@ -5924,7 +7768,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="103"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="L30" s="12"/>
@@ -6038,7 +7882,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="L31" s="12"/>
@@ -6152,7 +7996,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="103"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="L32" s="12"/>
@@ -6266,7 +8110,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="103"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="L33" s="12"/>
@@ -6438,6 +8282,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="101"/>
       <c r="B35" s="62" t="s">
         <v>26</v>
       </c>
@@ -6460,7 +8305,7 @@
         <f>IF(COUNTA(R35, AE35, AR35, BE35)=0, "", MAX(R35, AE35, AR35, BE35))</f>
         <v>44153</v>
       </c>
-      <c r="H35" s="102">
+      <c r="H35" s="65">
         <f>IF(OR(EXACT(I35, ""), EXACT(J35, "")), "", J35-I35)</f>
         <v>3</v>
       </c>
@@ -6626,10 +8471,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A36" s="104">
-        <f ca="1">VLOOKUP(C35, OFFSET($BL$6, 0, 0, PARAMETER!$C$2, 2), 2, )-F35</f>
-        <v>0</v>
-      </c>
+      <c r="A36" s="102"/>
       <c r="B36" s="26"/>
       <c r="D36" s="47">
         <f ca="1">D35</f>
@@ -6638,7 +8480,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="103"/>
+      <c r="H36" s="66"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="L36" s="12"/>
@@ -6702,10 +8544,10 @@
       <c r="AL36" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AM36" s="63" t="s">
+      <c r="AM36" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AN36" s="64"/>
+      <c r="AN36" s="98"/>
       <c r="AO36" s="16"/>
       <c r="AP36" s="16"/>
       <c r="AQ36" s="16"/>
@@ -6722,8 +8564,8 @@
       <c r="AV36" s="17"/>
       <c r="AW36" s="17"/>
       <c r="AY36" s="12"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="68"/>
+      <c r="AZ36" s="99"/>
+      <c r="BA36" s="100"/>
       <c r="BB36" s="16"/>
       <c r="BC36" s="16"/>
       <c r="BD36" s="16"/>
@@ -6749,6 +8591,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A37" s="103"/>
       <c r="B37" s="26"/>
       <c r="C37" s="17"/>
       <c r="D37" s="47">
@@ -6758,7 +8601,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="103"/>
+      <c r="H37" s="66"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="L37" s="12"/>
@@ -6892,7 +8735,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="103"/>
+      <c r="H38" s="66"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="L38" s="12"/>
@@ -7006,7 +8849,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="103"/>
+      <c r="H39" s="66"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="L39" s="12"/>
@@ -7120,7 +8963,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="103"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="L40" s="12"/>
@@ -7162,10 +9005,10 @@
       <c r="AL40" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AM40" s="63" t="s">
+      <c r="AM40" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AN40" s="64"/>
+      <c r="AN40" s="98"/>
       <c r="AO40" s="16"/>
       <c r="AP40" s="16"/>
       <c r="AQ40" s="16"/>
@@ -7218,7 +9061,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="103"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="L41" s="12"/>
@@ -7412,7 +9255,7 @@
         <f>IF(COUNTA(R43, AE43, AR43, BE43)=0, "", MAX(R43, AE43, AR43, BE43))</f>
         <v>44149</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="65">
         <f>IF(OR(EXACT(I43, ""), EXACT(J43, "")), "", J43-I43)</f>
         <v>1</v>
       </c>
@@ -7587,7 +9430,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="103"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="L44" s="12"/>
@@ -7651,10 +9494,10 @@
       <c r="AL44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AM44" s="63" t="s">
+      <c r="AM44" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AN44" s="64"/>
+      <c r="AN44" s="98"/>
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="16"/>
@@ -7671,8 +9514,8 @@
       <c r="AV44" s="17"/>
       <c r="AW44" s="17"/>
       <c r="AY44" s="12"/>
-      <c r="AZ44" s="67"/>
-      <c r="BA44" s="68"/>
+      <c r="AZ44" s="99"/>
+      <c r="BA44" s="100"/>
       <c r="BB44" s="16"/>
       <c r="BC44" s="16"/>
       <c r="BD44" s="16"/>
@@ -7707,7 +9550,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="103"/>
+      <c r="H45" s="66"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="L45" s="12"/>
@@ -7821,7 +9664,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="103"/>
+      <c r="H46" s="66"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="L46" s="12"/>
@@ -7863,10 +9706,10 @@
       <c r="AL46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AM46" s="63" t="s">
+      <c r="AM46" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AN46" s="64"/>
+      <c r="AN46" s="98"/>
       <c r="AO46" s="16"/>
       <c r="AP46" s="16"/>
       <c r="AQ46" s="16"/>
@@ -7996,6 +9839,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AL3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="Y3:AA5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AY3:BA5"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
@@ -8012,52 +9901,6 @@
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AY3:BA5"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AL3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8094,9 +9937,9 @@
       <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="63">
         <f ca="1">NOW()</f>
-        <v>44507.033242129626</v>
+        <v>44508.761038078701</v>
       </c>
     </row>
   </sheetData>
